--- a/labels.xlsx
+++ b/labels.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="601">
   <si>
     <t>Location</t>
   </si>
@@ -1280,520 +1280,541 @@
     <t>475 B</t>
   </si>
   <si>
+    <t>ice/arrests_noid</t>
+  </si>
+  <si>
+    <t>ERO_Arrests_FY2012-FY2014-REDACTED_raw.xlsx</t>
+  </si>
+  <si>
+    <t>arrests_noid</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>ERO_Arrests_FY2015-FY2023_YTD-REDACTED_raw.xlsx</t>
+  </si>
+  <si>
+    <t>71 MB</t>
+  </si>
+  <si>
+    <t>ice/arrests</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_Admin Arrests_FY16-12_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>arrests</t>
+  </si>
+  <si>
+    <t>53 MB</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_Admin Arrests_FY23-17_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>ice/arts_noid</t>
+  </si>
+  <si>
+    <t>ARTS Data FY11-reviewed_raw.xlsx</t>
+  </si>
+  <si>
+    <t>arts_noid</t>
+  </si>
+  <si>
+    <t>Flight missions</t>
+  </si>
+  <si>
+    <t>265 kB</t>
+  </si>
+  <si>
+    <t>ARTS Data FY12-reviewed_raw.xlsx</t>
+  </si>
+  <si>
+    <t>322 kB</t>
+  </si>
+  <si>
+    <t>ARTS Data FY13-reviewed_raw.xlsx</t>
+  </si>
+  <si>
+    <t>311 kB</t>
+  </si>
+  <si>
+    <t>ARTS Data FY14-reviewed_raw.xlsx</t>
+  </si>
+  <si>
+    <t>642 kB</t>
+  </si>
+  <si>
+    <t>ARTS Data FY15-reviewed_raw.xlsx</t>
+  </si>
+  <si>
+    <t>226 kB</t>
+  </si>
+  <si>
+    <t>ARTS Data FY16-reviewed_raw.xlsx</t>
+  </si>
+  <si>
+    <t>273 kB</t>
+  </si>
+  <si>
+    <t>ARTS Data FY17-reviewed_raw.xlsx</t>
+  </si>
+  <si>
+    <t>240 kB</t>
+  </si>
+  <si>
+    <t>ARTS Data FY18-reviewed_raw.xlsx</t>
+  </si>
+  <si>
+    <t>246 kB</t>
+  </si>
+  <si>
+    <t>ARTS Data FY19 Year To Date-reviewed_raw.xlsx</t>
+  </si>
+  <si>
+    <t>188 kB</t>
+  </si>
+  <si>
+    <t>ARTS Passenger Data FY11_raw.xlsx</t>
+  </si>
+  <si>
+    <t>Passengers</t>
+  </si>
+  <si>
+    <t>ARTS Passenger Data FY12_raw.xlsx</t>
+  </si>
+  <si>
+    <t>ARTS Passenger Data FY13_raw.xlsx</t>
+  </si>
+  <si>
+    <t>ARTS Passenger Data FY14_raw.xlsx</t>
+  </si>
+  <si>
+    <t>ARTS Passenger Data FY15_raw.xlsx</t>
+  </si>
+  <si>
+    <t>23 MB</t>
+  </si>
+  <si>
+    <t>ARTS Passenger Data FY16_raw.xlsx</t>
+  </si>
+  <si>
+    <t>ARTS Passenger Data FY17_raw.xlsx</t>
+  </si>
+  <si>
+    <t>ARTS Passenger Data FY18_raw.xlsx</t>
+  </si>
+  <si>
+    <t>ARTS Passenger Data FY19_raw.xlsx</t>
+  </si>
+  <si>
+    <t>6 MB</t>
+  </si>
+  <si>
+    <t>ARTS_Missions-redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>460 kB</t>
+  </si>
+  <si>
+    <t>ARTS_Passenger-redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>ice/detainers_noid</t>
+  </si>
+  <si>
+    <t>detainersfy10_raw.csv</t>
+  </si>
+  <si>
+    <t>detainers_noid</t>
+  </si>
+  <si>
+    <t>Expanded set of fields</t>
+  </si>
+  <si>
+    <t>66 MB</t>
+  </si>
+  <si>
+    <t>detainersfy11_raw.csv</t>
+  </si>
+  <si>
+    <t>72 MB</t>
+  </si>
+  <si>
+    <t>detainersfy12_raw.csv</t>
+  </si>
+  <si>
+    <t>detainersfy13_raw.csv</t>
+  </si>
+  <si>
+    <t>49 MB</t>
+  </si>
+  <si>
+    <t>detainersfy14_raw.csv</t>
+  </si>
+  <si>
+    <t>detainersfy15_raw.csv</t>
+  </si>
+  <si>
+    <t>detainersfy16_raw.csv</t>
+  </si>
+  <si>
+    <t>detainersfy17_raw.csv</t>
+  </si>
+  <si>
+    <t>detainersfy9_raw.csv</t>
+  </si>
+  <si>
+    <t>lea-detainers-FY08_raw.txt</t>
+  </si>
+  <si>
+    <t>Limited fields but includes city and state of facility</t>
+  </si>
+  <si>
+    <t>lea-detainers-FY09_raw.txt</t>
+  </si>
+  <si>
+    <t>lea-detainers-FY10_raw.txt</t>
+  </si>
+  <si>
+    <t>lea-detainers-FY11_12_raw.txt</t>
+  </si>
+  <si>
+    <t>lea-detainers-FY13_14_raw.txt</t>
+  </si>
+  <si>
+    <t>lea-detainers-FY15YTD_raw.txt</t>
+  </si>
+  <si>
+    <t>ice/detentions_noid</t>
+  </si>
+  <si>
+    <t>ICE Detentions_FY2011 and Prior_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>detentions_noid</t>
+  </si>
+  <si>
+    <t>ICE Detentions_FY2012_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>180 MB</t>
+  </si>
+  <si>
+    <t>ICE Detentions_FY2013_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>163 MB</t>
+  </si>
+  <si>
+    <t>ICE Detentions_FY2014_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>157 MB</t>
+  </si>
+  <si>
+    <t>ICE Detentions_FY2015_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>120 MB</t>
+  </si>
+  <si>
+    <t>ICE Detentions_FY2016_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>138 MB</t>
+  </si>
+  <si>
+    <t>ICE Detentions_FY2017_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>139 MB</t>
+  </si>
+  <si>
+    <t>ICE Detentions_FY2018_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>ICE Detentions_FY2019_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>172 MB</t>
+  </si>
+  <si>
+    <t>ICE Detentions_FY2020_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>ICE Detentions_FY2021_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>69 MB</t>
+  </si>
+  <si>
+    <t>ICE Detentions_FY2022_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>92 MB</t>
+  </si>
+  <si>
+    <t>ICE Detentions_FY2023_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>96 MB</t>
+  </si>
+  <si>
+    <t>ICE Detentions_FY2024_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>ice/detentions</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_Detentions_FY12_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>detentions</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_Detentions_FY13_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>149 MB</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_Detentions_FY14_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_Detentions_FY15_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>117 MB</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_Detentions_FY16_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>132 MB</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_Detentions_FY17_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_Detentions_FY18_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>158 MB</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_Detentions_FY19_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_Detentions_FY20_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>60 MB</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_Detentions_FY21_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>77 MB</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_Detentions_FY22_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>79 MB</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_Detentions_FY23_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>81 MB</t>
+  </si>
+  <si>
+    <t>ice/encounters_noid</t>
+  </si>
+  <si>
+    <t>ERO_Encounters_FY2012-FY2014-REDACTED_raw.xlsx</t>
+  </si>
+  <si>
+    <t>encounters_noid</t>
+  </si>
+  <si>
+    <t>97 MB</t>
+  </si>
+  <si>
+    <t>ERO_Encounters_FY2015-FY2023_YTD-REDACTED_raw.xlsx</t>
+  </si>
+  <si>
+    <t>ice/facilities_noid</t>
+  </si>
+  <si>
+    <t>ICE_Facility_List_11-06-2017-web_raw.xlsx</t>
+  </si>
+  <si>
+    <t>facilities_noid</t>
+  </si>
+  <si>
+    <t>2017-11-07</t>
+  </si>
+  <si>
+    <t>2 MB</t>
+  </si>
+  <si>
+    <t>ice/rca</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_RCA Decision History_FY12_LESA-STU_FINAL-Redactions Complete_raw.xlsx</t>
+  </si>
+  <si>
+    <t>rca</t>
+  </si>
+  <si>
+    <t>476 kB</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_RCA Decision History_FY13_LESA-STU_FINAL-Redactions Complete_raw.xlsx</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_RCA Decision History_FY14_LESA-STU_FINAL Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_RCA Decision History_FY15_LESA-STU_FINAL-REDACTED_raw.xlsx</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_RCA Decision History_FY16_LESA-STU_FINAL-_raw.xlsx</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_RCA Decision History_FY17_LESA-STU_FINAL-_raw.xlsx</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_RCA Decision History_FY18_LESA-STU_FINAL_Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_RCA Decision History_FY19_LESA-STU_FINAL_REDACTED_raw.xlsx</t>
+  </si>
+  <si>
+    <t>84 MB</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_RCA Decision History_FY20_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_RCA Decision History_FY21_LESA-STU_FINAL-REDACTED_raw.xlsx</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_RCA Decision History_FY22_LESA-STU_FINAL-Redactions Complete_raw.xlsx</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_RCA Decision History_FY23_LESA-STU_FINAL-Redactions Complete_raw.xlsx</t>
+  </si>
+  <si>
+    <t>ice/removals_noid</t>
+  </si>
+  <si>
+    <t>ICE_Removals_FY2012-FY2014-REDACTED_raw.xlsx</t>
+  </si>
+  <si>
+    <t>removals_noid</t>
+  </si>
+  <si>
+    <t>ICE_Removals_FY2015-FY2023_YTD-REDACTED_raw.xlsx</t>
+  </si>
+  <si>
+    <t>ice/removals</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_Removals_FY13-12_LESA-STU_FINAL- Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>removals</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_Removals_FY16-14_LESA-STU_FINAL_Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>143 MB</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_Removals_FY19-17_LESA-STU_FINAL_Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>137 MB</t>
+  </si>
+  <si>
+    <t>2023-ICFO_42034_Removals_FY23-20_LESA-STU_FINAL_Redacted_raw.xlsx</t>
+  </si>
+  <si>
+    <t>85 MB</t>
+  </si>
+  <si>
+    <t>source_label</t>
+  </si>
+  <si>
+    <t>source_URL</t>
+  </si>
+  <si>
+    <t>https://www.cbp.gov/newsroom/accountability-and-transparency/foia-reading-room</t>
+  </si>
+  <si>
+    <t>https://www.justice.gov/eoir/foia-library-0</t>
+  </si>
+  <si>
+    <t>https://www.ice.gov/doclib/foia/thirdPartyRequests/2023-ICFO-42034.zip</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>ice/arrests_historical</t>
   </si>
   <si>
-    <t>ERO_Arrests_FY2012-FY2014-REDACTED_raw.xlsx</t>
-  </si>
-  <si>
-    <t>arrests_historical</t>
-  </si>
-  <si>
-    <t>ICE</t>
-  </si>
-  <si>
-    <t>ERO_Arrests_FY2015-FY2023_YTD-REDACTED_raw.xlsx</t>
-  </si>
-  <si>
-    <t>71 MB</t>
-  </si>
-  <si>
-    <t>ice/arrests</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_Admin Arrests_FY16-12_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>arrests</t>
-  </si>
-  <si>
-    <t>53 MB</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_Admin Arrests_FY23-17_LESA-STU_FINAL-Redacted_raw.xlsx</t>
+    <t>UWCHR</t>
+  </si>
+  <si>
+    <t>https://github.com/UWCHR/ice-enforce</t>
   </si>
   <si>
     <t>ice/arts_historical</t>
   </si>
   <si>
-    <t>ARTS Data FY11-reviewed_raw.xlsx</t>
-  </si>
-  <si>
-    <t>arts_historical</t>
-  </si>
-  <si>
-    <t>Flight missions</t>
-  </si>
-  <si>
-    <t>265 kB</t>
-  </si>
-  <si>
-    <t>ARTS Data FY12-reviewed_raw.xlsx</t>
-  </si>
-  <si>
-    <t>322 kB</t>
-  </si>
-  <si>
-    <t>ARTS Data FY13-reviewed_raw.xlsx</t>
-  </si>
-  <si>
-    <t>311 kB</t>
-  </si>
-  <si>
-    <t>ARTS Data FY14-reviewed_raw.xlsx</t>
-  </si>
-  <si>
-    <t>642 kB</t>
-  </si>
-  <si>
-    <t>ARTS Data FY15-reviewed_raw.xlsx</t>
-  </si>
-  <si>
-    <t>226 kB</t>
-  </si>
-  <si>
-    <t>ARTS Data FY16-reviewed_raw.xlsx</t>
-  </si>
-  <si>
-    <t>273 kB</t>
-  </si>
-  <si>
-    <t>ARTS Data FY17-reviewed_raw.xlsx</t>
-  </si>
-  <si>
-    <t>240 kB</t>
-  </si>
-  <si>
-    <t>ARTS Data FY18-reviewed_raw.xlsx</t>
-  </si>
-  <si>
-    <t>246 kB</t>
-  </si>
-  <si>
-    <t>ARTS Data FY19 Year To Date-reviewed_raw.xlsx</t>
-  </si>
-  <si>
-    <t>188 kB</t>
-  </si>
-  <si>
-    <t>ARTS Passenger Data FY11_raw.xlsx</t>
-  </si>
-  <si>
-    <t>Passengers</t>
-  </si>
-  <si>
-    <t>ARTS Passenger Data FY12_raw.xlsx</t>
-  </si>
-  <si>
-    <t>ARTS Passenger Data FY13_raw.xlsx</t>
-  </si>
-  <si>
-    <t>ARTS Passenger Data FY14_raw.xlsx</t>
-  </si>
-  <si>
-    <t>ARTS Passenger Data FY15_raw.xlsx</t>
-  </si>
-  <si>
-    <t>23 MB</t>
-  </si>
-  <si>
-    <t>ARTS Passenger Data FY16_raw.xlsx</t>
-  </si>
-  <si>
-    <t>ARTS Passenger Data FY17_raw.xlsx</t>
-  </si>
-  <si>
-    <t>ARTS Passenger Data FY18_raw.xlsx</t>
-  </si>
-  <si>
-    <t>ARTS Passenger Data FY19_raw.xlsx</t>
-  </si>
-  <si>
-    <t>6 MB</t>
-  </si>
-  <si>
-    <t>ARTS_Missions-redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>460 kB</t>
-  </si>
-  <si>
-    <t>ARTS_Passenger-redacted_raw.xlsx</t>
+    <t>https://github.com/UWCHR/ice-air</t>
   </si>
   <si>
     <t>ice/detainers_historical</t>
   </si>
   <si>
-    <t>detainersfy10_raw.csv</t>
-  </si>
-  <si>
-    <t>detainers_historical</t>
-  </si>
-  <si>
-    <t>Expanded set of fields</t>
-  </si>
-  <si>
-    <t>66 MB</t>
-  </si>
-  <si>
-    <t>detainersfy11_raw.csv</t>
-  </si>
-  <si>
-    <t>72 MB</t>
-  </si>
-  <si>
-    <t>detainersfy12_raw.csv</t>
-  </si>
-  <si>
-    <t>detainersfy13_raw.csv</t>
-  </si>
-  <si>
-    <t>49 MB</t>
-  </si>
-  <si>
-    <t>detainersfy14_raw.csv</t>
-  </si>
-  <si>
-    <t>detainersfy15_raw.csv</t>
-  </si>
-  <si>
-    <t>detainersfy16_raw.csv</t>
-  </si>
-  <si>
-    <t>detainersfy17_raw.csv</t>
-  </si>
-  <si>
-    <t>detainersfy9_raw.csv</t>
-  </si>
-  <si>
-    <t>lea-detainers-FY08_raw.txt</t>
-  </si>
-  <si>
-    <t>Limited fields but includes city and state of facility</t>
-  </si>
-  <si>
-    <t>lea-detainers-FY09_raw.txt</t>
-  </si>
-  <si>
-    <t>lea-detainers-FY10_raw.txt</t>
-  </si>
-  <si>
-    <t>lea-detainers-FY11_12_raw.txt</t>
-  </si>
-  <si>
-    <t>lea-detainers-FY13_14_raw.txt</t>
-  </si>
-  <si>
-    <t>lea-detainers-FY15YTD_raw.txt</t>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>https://github.com/nprapps/sanctuary-cities</t>
+  </si>
+  <si>
+    <t>Some</t>
   </si>
   <si>
     <t>ice/detentions_historical</t>
   </si>
   <si>
-    <t>ICE Detentions_FY2011 and Prior_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>detentions_historical</t>
-  </si>
-  <si>
-    <t>ICE Detentions_FY2012_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>180 MB</t>
-  </si>
-  <si>
-    <t>ICE Detentions_FY2013_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>163 MB</t>
-  </si>
-  <si>
-    <t>ICE Detentions_FY2014_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>157 MB</t>
-  </si>
-  <si>
-    <t>ICE Detentions_FY2015_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>120 MB</t>
-  </si>
-  <si>
-    <t>ICE Detentions_FY2016_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>138 MB</t>
-  </si>
-  <si>
-    <t>ICE Detentions_FY2017_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>139 MB</t>
-  </si>
-  <si>
-    <t>ICE Detentions_FY2018_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>ICE Detentions_FY2019_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>172 MB</t>
-  </si>
-  <si>
-    <t>ICE Detentions_FY2020_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>ICE Detentions_FY2021_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>69 MB</t>
-  </si>
-  <si>
-    <t>ICE Detentions_FY2022_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>92 MB</t>
-  </si>
-  <si>
-    <t>ICE Detentions_FY2023_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>96 MB</t>
-  </si>
-  <si>
-    <t>ICE Detentions_FY2024_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>ice/detentions</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_Detentions_FY12_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>detentions</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_Detentions_FY13_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>149 MB</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_Detentions_FY14_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_Detentions_FY15_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>117 MB</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_Detentions_FY16_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>132 MB</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_Detentions_FY17_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_Detentions_FY18_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>158 MB</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_Detentions_FY19_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_Detentions_FY20_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>60 MB</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_Detentions_FY21_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>77 MB</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_Detentions_FY22_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>79 MB</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_Detentions_FY23_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>81 MB</t>
+    <t>https://github.com/UWCHR/ice-detain</t>
   </si>
   <si>
     <t>ice/encounters_historical</t>
   </si>
   <si>
-    <t>ERO_Encounters_FY2012-FY2014-REDACTED_raw.xlsx</t>
-  </si>
-  <si>
-    <t>encounters_historical</t>
-  </si>
-  <si>
-    <t>97 MB</t>
-  </si>
-  <si>
-    <t>ERO_Encounters_FY2015-FY2023_YTD-REDACTED_raw.xlsx</t>
-  </si>
-  <si>
     <t>ice/facilities_historical</t>
   </si>
   <si>
-    <t>ICE_Facility_List_11-06-2017-web_raw.xlsx</t>
-  </si>
-  <si>
-    <t>facilities_historical</t>
-  </si>
-  <si>
-    <t>2017-11-07</t>
-  </si>
-  <si>
-    <t>2 MB</t>
-  </si>
-  <si>
-    <t>ice/rca</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_RCA Decision History_FY12_LESA-STU_FINAL-Redactions Complete_raw.xlsx</t>
-  </si>
-  <si>
-    <t>rca</t>
-  </si>
-  <si>
-    <t>476 kB</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_RCA Decision History_FY13_LESA-STU_FINAL-Redactions Complete_raw.xlsx</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_RCA Decision History_FY14_LESA-STU_FINAL Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_RCA Decision History_FY15_LESA-STU_FINAL-REDACTED_raw.xlsx</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_RCA Decision History_FY16_LESA-STU_FINAL-_raw.xlsx</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_RCA Decision History_FY17_LESA-STU_FINAL-_raw.xlsx</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_RCA Decision History_FY18_LESA-STU_FINAL_Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_RCA Decision History_FY19_LESA-STU_FINAL_REDACTED_raw.xlsx</t>
-  </si>
-  <si>
-    <t>84 MB</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_RCA Decision History_FY20_LESA-STU_FINAL-Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_RCA Decision History_FY21_LESA-STU_FINAL-REDACTED_raw.xlsx</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_RCA Decision History_FY22_LESA-STU_FINAL-Redactions Complete_raw.xlsx</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_RCA Decision History_FY23_LESA-STU_FINAL-Redactions Complete_raw.xlsx</t>
+    <t>NIJC</t>
+  </si>
+  <si>
+    <t>https://immigrantjustice.org/ice-detention-facilities-november-2017</t>
   </si>
   <si>
     <t>ice/removals_historical</t>
-  </si>
-  <si>
-    <t>ICE_Removals_FY2012-FY2014-REDACTED_raw.xlsx</t>
-  </si>
-  <si>
-    <t>removals_historical</t>
-  </si>
-  <si>
-    <t>ICE_Removals_FY2015-FY2023_YTD-REDACTED_raw.xlsx</t>
-  </si>
-  <si>
-    <t>ice/removals</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_Removals_FY13-12_LESA-STU_FINAL- Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>removals</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_Removals_FY16-14_LESA-STU_FINAL_Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>143 MB</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_Removals_FY19-17_LESA-STU_FINAL_Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>137 MB</t>
-  </si>
-  <si>
-    <t>2023-ICFO_42034_Removals_FY23-20_LESA-STU_FINAL_Redacted_raw.xlsx</t>
-  </si>
-  <si>
-    <t>85 MB</t>
-  </si>
-  <si>
-    <t>source_label</t>
-  </si>
-  <si>
-    <t>source_URL</t>
-  </si>
-  <si>
-    <t>https://www.cbp.gov/newsroom/accountability-and-transparency/foia-reading-room</t>
-  </si>
-  <si>
-    <t>https://www.justice.gov/eoir/foia-library-0</t>
-  </si>
-  <si>
-    <t>https://www.ice.gov/doclib/foia/thirdPartyRequests/2023-ICFO-42034.zip</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>UWCHR</t>
-  </si>
-  <si>
-    <t>https://github.com/UWCHR/ice-enforce</t>
-  </si>
-  <si>
-    <t>https://github.com/UWCHR/ice-air</t>
-  </si>
-  <si>
-    <t>NPR</t>
-  </si>
-  <si>
-    <t>https://github.com/nprapps/sanctuary-cities</t>
-  </si>
-  <si>
-    <t>Some</t>
-  </si>
-  <si>
-    <t>https://github.com/UWCHR/ice-detain</t>
-  </si>
-  <si>
-    <t>NIJC</t>
-  </si>
-  <si>
-    <t>https://immigrantjustice.org/ice-detention-facilities-november-2017</t>
   </si>
 </sst>
 </file>
@@ -13063,35 +13084,35 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>422</v>
+        <v>585</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>433</v>
+        <v>588</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>470</v>
+        <v>590</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12">
@@ -13105,40 +13126,40 @@
         <v>583</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>492</v>
+        <v>594</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>540</v>
+        <v>596</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>545</v>
+        <v>597</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16">
@@ -13165,13 +13186,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>566</v>
+        <v>600</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/labels.xlsx
+++ b/labels.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="594">
   <si>
     <t>Location</t>
   </si>
@@ -1769,24 +1769,15 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>ice/arrests_historical</t>
-  </si>
-  <si>
     <t>UWCHR</t>
   </si>
   <si>
     <t>https://github.com/UWCHR/ice-enforce</t>
   </si>
   <si>
-    <t>ice/arts_historical</t>
-  </si>
-  <si>
     <t>https://github.com/UWCHR/ice-air</t>
   </si>
   <si>
-    <t>ice/detainers_historical</t>
-  </si>
-  <si>
     <t>NPR</t>
   </si>
   <si>
@@ -1796,25 +1787,13 @@
     <t>Some</t>
   </si>
   <si>
-    <t>ice/detentions_historical</t>
-  </si>
-  <si>
     <t>https://github.com/UWCHR/ice-detain</t>
   </si>
   <si>
-    <t>ice/encounters_historical</t>
-  </si>
-  <si>
-    <t>ice/facilities_historical</t>
-  </si>
-  <si>
     <t>NIJC</t>
   </si>
   <si>
     <t>https://immigrantjustice.org/ice-detention-facilities-november-2017</t>
-  </si>
-  <si>
-    <t>ice/removals_historical</t>
   </si>
 </sst>
 </file>
@@ -13084,35 +13063,35 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>588</v>
+        <v>433</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>590</v>
+        <v>470</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12">
@@ -13126,40 +13105,40 @@
         <v>583</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>594</v>
+        <v>492</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>596</v>
+        <v>540</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>597</v>
+        <v>545</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16">
@@ -13186,13 +13165,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>600</v>
+        <v>566</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/labels.xlsx
+++ b/labels.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="595">
   <si>
     <t>Location</t>
   </si>
@@ -744,6 +744,9 @@
   </si>
   <si>
     <t>EOIR</t>
+  </si>
+  <si>
+    <t>2025-01</t>
   </si>
   <si>
     <t>2 GB</t>
@@ -1800,9 +1803,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1852,7 +1854,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -4329,11 +4331,11 @@
       <c r="E81" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G81" s="4">
-        <v>45658.0</v>
+      <c r="G81" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I81" s="1">
         <v>100.0</v>
@@ -4344,7 +4346,7 @@
         <v>240</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>242</v>
@@ -4353,13 +4355,13 @@
         <v>243</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G82" s="4">
-        <v>45658.0</v>
+        <v>246</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I82" s="1">
         <v>100.0</v>
@@ -4370,7 +4372,7 @@
         <v>240</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>242</v>
@@ -4379,13 +4381,13 @@
         <v>243</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G83" s="4">
-        <v>45658.0</v>
+        <v>248</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I83" s="1">
         <v>100.0</v>
@@ -4396,7 +4398,7 @@
         <v>240</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>242</v>
@@ -4405,13 +4407,13 @@
         <v>243</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G84" s="4">
-        <v>45658.0</v>
+        <v>250</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I84" s="1">
         <v>100.0</v>
@@ -4422,7 +4424,7 @@
         <v>240</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>242</v>
@@ -4431,13 +4433,13 @@
         <v>243</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G85" s="4">
-        <v>45658.0</v>
+        <v>252</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I85" s="1">
         <v>100.0</v>
@@ -4448,7 +4450,7 @@
         <v>240</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>242</v>
@@ -4457,13 +4459,13 @@
         <v>243</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G86" s="4">
-        <v>45658.0</v>
+        <v>254</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I86" s="1">
         <v>100.0</v>
@@ -4474,7 +4476,7 @@
         <v>240</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>242</v>
@@ -4483,13 +4485,13 @@
         <v>243</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G87" s="4">
-        <v>45658.0</v>
+        <v>256</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I87" s="1">
         <v>100.0</v>
@@ -4500,7 +4502,7 @@
         <v>240</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>242</v>
@@ -4509,13 +4511,13 @@
         <v>243</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G88" s="4">
-        <v>45658.0</v>
+        <v>258</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I88" s="1">
         <v>100.0</v>
@@ -4526,7 +4528,7 @@
         <v>240</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>242</v>
@@ -4535,13 +4537,13 @@
         <v>243</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G89" s="4">
-        <v>45658.0</v>
+        <v>260</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I89" s="1">
         <v>100.0</v>
@@ -4552,7 +4554,7 @@
         <v>240</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>242</v>
@@ -4561,13 +4563,13 @@
         <v>243</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G90" s="4">
-        <v>45658.0</v>
+        <v>262</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I90" s="1">
         <v>100.0</v>
@@ -4578,7 +4580,7 @@
         <v>240</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>242</v>
@@ -4587,10 +4589,10 @@
         <v>243</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G91" s="4">
-        <v>45658.0</v>
+        <v>264</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>148</v>
@@ -4604,7 +4606,7 @@
         <v>240</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>242</v>
@@ -4613,13 +4615,13 @@
         <v>243</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G92" s="4">
-        <v>45658.0</v>
+        <v>265</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I92" s="1">
         <v>100.0</v>
@@ -4630,7 +4632,7 @@
         <v>240</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>242</v>
@@ -4639,13 +4641,13 @@
         <v>243</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G93" s="4">
-        <v>45658.0</v>
+        <v>267</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I93" s="1">
         <v>100.0</v>
@@ -4656,7 +4658,7 @@
         <v>240</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>242</v>
@@ -4665,13 +4667,13 @@
         <v>243</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G94" s="4">
-        <v>45658.0</v>
+        <v>269</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I94" s="1">
         <v>100.0</v>
@@ -4682,7 +4684,7 @@
         <v>240</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>242</v>
@@ -4691,13 +4693,13 @@
         <v>243</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G95" s="4">
-        <v>45658.0</v>
+        <v>270</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I95" s="1">
         <v>100.0</v>
@@ -4708,7 +4710,7 @@
         <v>240</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>242</v>
@@ -4717,13 +4719,13 @@
         <v>243</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G96" s="4">
-        <v>45658.0</v>
+        <v>272</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I96" s="1">
         <v>100.0</v>
@@ -4734,7 +4736,7 @@
         <v>240</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>242</v>
@@ -4743,13 +4745,13 @@
         <v>243</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G97" s="4">
-        <v>45658.0</v>
+        <v>274</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I97" s="1">
         <v>100.0</v>
@@ -4760,7 +4762,7 @@
         <v>240</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>242</v>
@@ -4769,13 +4771,13 @@
         <v>243</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G98" s="4">
-        <v>45658.0</v>
+        <v>276</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I98" s="1">
         <v>100.0</v>
@@ -4786,7 +4788,7 @@
         <v>240</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>242</v>
@@ -4795,13 +4797,13 @@
         <v>243</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G99" s="4">
-        <v>45658.0</v>
+        <v>278</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I99" s="1">
         <v>100.0</v>
@@ -4812,7 +4814,7 @@
         <v>240</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>242</v>
@@ -4821,13 +4823,13 @@
         <v>243</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G100" s="4">
-        <v>45658.0</v>
+        <v>280</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I100" s="1">
         <v>100.0</v>
@@ -4838,7 +4840,7 @@
         <v>240</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>242</v>
@@ -4847,13 +4849,13 @@
         <v>243</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G101" s="4">
-        <v>45658.0</v>
+        <v>281</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I101" s="1">
         <v>100.0</v>
@@ -4864,7 +4866,7 @@
         <v>240</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>242</v>
@@ -4873,13 +4875,13 @@
         <v>243</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G102" s="4">
-        <v>45658.0</v>
+        <v>283</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I102" s="1">
         <v>100.0</v>
@@ -4890,7 +4892,7 @@
         <v>240</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>242</v>
@@ -4899,13 +4901,13 @@
         <v>243</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G103" s="4">
-        <v>45658.0</v>
+        <v>285</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I103" s="1">
         <v>100.0</v>
@@ -4916,7 +4918,7 @@
         <v>240</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>242</v>
@@ -4925,13 +4927,13 @@
         <v>243</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G104" s="4">
-        <v>45658.0</v>
+        <v>287</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I104" s="1">
         <v>100.0</v>
@@ -4942,7 +4944,7 @@
         <v>240</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>242</v>
@@ -4951,13 +4953,13 @@
         <v>243</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G105" s="4">
-        <v>45658.0</v>
+        <v>289</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I105" s="1">
         <v>100.0</v>
@@ -4968,7 +4970,7 @@
         <v>240</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>242</v>
@@ -4977,13 +4979,13 @@
         <v>243</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G106" s="4">
-        <v>45658.0</v>
+        <v>291</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I106" s="1">
         <v>100.0</v>
@@ -4994,7 +4996,7 @@
         <v>240</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>242</v>
@@ -5003,13 +5005,13 @@
         <v>243</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G107" s="4">
-        <v>45658.0</v>
+        <v>293</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I107" s="1">
         <v>100.0</v>
@@ -5020,7 +5022,7 @@
         <v>240</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>242</v>
@@ -5029,13 +5031,13 @@
         <v>243</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G108" s="4">
-        <v>45658.0</v>
+        <v>295</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I108" s="1">
         <v>100.0</v>
@@ -5046,7 +5048,7 @@
         <v>240</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>242</v>
@@ -5055,13 +5057,13 @@
         <v>243</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G109" s="4">
-        <v>45658.0</v>
+        <v>297</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I109" s="1">
         <v>100.0</v>
@@ -5072,7 +5074,7 @@
         <v>240</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>242</v>
@@ -5081,13 +5083,13 @@
         <v>243</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G110" s="4">
-        <v>45658.0</v>
+        <v>299</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I110" s="1">
         <v>100.0</v>
@@ -5098,7 +5100,7 @@
         <v>240</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>242</v>
@@ -5107,13 +5109,13 @@
         <v>243</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G111" s="4">
-        <v>45658.0</v>
+        <v>301</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I111" s="1">
         <v>100.0</v>
@@ -5124,7 +5126,7 @@
         <v>240</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>242</v>
@@ -5133,13 +5135,13 @@
         <v>243</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G112" s="4">
-        <v>45658.0</v>
+        <v>303</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I112" s="1">
         <v>100.0</v>
@@ -5150,7 +5152,7 @@
         <v>240</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>242</v>
@@ -5159,13 +5161,13 @@
         <v>243</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G113" s="4">
-        <v>45658.0</v>
+        <v>305</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I113" s="1">
         <v>100.0</v>
@@ -5176,7 +5178,7 @@
         <v>240</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>242</v>
@@ -5185,13 +5187,13 @@
         <v>243</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G114" s="4">
-        <v>45658.0</v>
+        <v>307</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I114" s="1">
         <v>100.0</v>
@@ -5202,7 +5204,7 @@
         <v>240</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>242</v>
@@ -5211,13 +5213,13 @@
         <v>243</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G115" s="4">
-        <v>45658.0</v>
+        <v>309</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I115" s="1">
         <v>100.0</v>
@@ -5228,7 +5230,7 @@
         <v>240</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>242</v>
@@ -5237,13 +5239,13 @@
         <v>243</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G116" s="4">
-        <v>45658.0</v>
+        <v>311</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I116" s="1">
         <v>100.0</v>
@@ -5254,7 +5256,7 @@
         <v>240</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>242</v>
@@ -5263,13 +5265,13 @@
         <v>243</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G117" s="4">
-        <v>45658.0</v>
+        <v>313</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I117" s="1">
         <v>100.0</v>
@@ -5280,7 +5282,7 @@
         <v>240</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>242</v>
@@ -5289,13 +5291,13 @@
         <v>243</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G118" s="4">
-        <v>45658.0</v>
+        <v>315</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I118" s="1">
         <v>100.0</v>
@@ -5306,7 +5308,7 @@
         <v>240</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>242</v>
@@ -5315,13 +5317,13 @@
         <v>243</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G119" s="4">
-        <v>45658.0</v>
+        <v>317</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I119" s="1">
         <v>100.0</v>
@@ -5332,7 +5334,7 @@
         <v>240</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>242</v>
@@ -5341,13 +5343,13 @@
         <v>243</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G120" s="4">
-        <v>45658.0</v>
+        <v>319</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I120" s="1">
         <v>100.0</v>
@@ -5358,7 +5360,7 @@
         <v>240</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>242</v>
@@ -5367,13 +5369,13 @@
         <v>243</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G121" s="4">
-        <v>45658.0</v>
+        <v>320</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I121" s="1">
         <v>100.0</v>
@@ -5384,7 +5386,7 @@
         <v>240</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>242</v>
@@ -5393,13 +5395,13 @@
         <v>243</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G122" s="4">
-        <v>45658.0</v>
+        <v>321</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I122" s="1">
         <v>100.0</v>
@@ -5410,7 +5412,7 @@
         <v>240</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>242</v>
@@ -5419,13 +5421,13 @@
         <v>243</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="G123" s="4">
-        <v>45658.0</v>
+        <v>323</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I123" s="1">
         <v>100.0</v>
@@ -5436,7 +5438,7 @@
         <v>240</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>242</v>
@@ -5445,13 +5447,13 @@
         <v>243</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G124" s="4">
-        <v>45658.0</v>
+        <v>325</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I124" s="1">
         <v>100.0</v>
@@ -5462,7 +5464,7 @@
         <v>240</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>242</v>
@@ -5471,13 +5473,13 @@
         <v>243</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G125" s="4">
-        <v>45658.0</v>
+        <v>327</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I125" s="1">
         <v>100.0</v>
@@ -5488,7 +5490,7 @@
         <v>240</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>242</v>
@@ -5497,13 +5499,13 @@
         <v>243</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G126" s="4">
-        <v>45658.0</v>
+        <v>329</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I126" s="1">
         <v>100.0</v>
@@ -5514,7 +5516,7 @@
         <v>240</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>242</v>
@@ -5523,13 +5525,13 @@
         <v>243</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G127" s="4">
-        <v>45658.0</v>
+        <v>331</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I127" s="1">
         <v>100.0</v>
@@ -5540,7 +5542,7 @@
         <v>240</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>242</v>
@@ -5549,13 +5551,13 @@
         <v>243</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G128" s="4">
-        <v>45658.0</v>
+        <v>333</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I128" s="1">
         <v>100.0</v>
@@ -5566,7 +5568,7 @@
         <v>240</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>242</v>
@@ -5575,13 +5577,13 @@
         <v>243</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G129" s="4">
-        <v>45658.0</v>
+        <v>335</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I129" s="1">
         <v>100.0</v>
@@ -5592,7 +5594,7 @@
         <v>240</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>242</v>
@@ -5601,13 +5603,13 @@
         <v>243</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G130" s="4">
-        <v>45658.0</v>
+        <v>337</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I130" s="1">
         <v>100.0</v>
@@ -5618,7 +5620,7 @@
         <v>240</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>242</v>
@@ -5627,13 +5629,13 @@
         <v>243</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G131" s="4">
-        <v>45658.0</v>
+        <v>339</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I131" s="1">
         <v>100.0</v>
@@ -5644,7 +5646,7 @@
         <v>240</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>242</v>
@@ -5653,13 +5655,13 @@
         <v>243</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G132" s="4">
-        <v>45658.0</v>
+        <v>340</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I132" s="1">
         <v>100.0</v>
@@ -5670,7 +5672,7 @@
         <v>240</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>242</v>
@@ -5679,13 +5681,13 @@
         <v>243</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G133" s="4">
-        <v>45658.0</v>
+        <v>342</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I133" s="1">
         <v>100.0</v>
@@ -5696,7 +5698,7 @@
         <v>240</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>242</v>
@@ -5705,13 +5707,13 @@
         <v>243</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G134" s="4">
-        <v>45658.0</v>
+        <v>344</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I134" s="1">
         <v>100.0</v>
@@ -5722,7 +5724,7 @@
         <v>240</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>242</v>
@@ -5731,13 +5733,13 @@
         <v>243</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G135" s="4">
-        <v>45658.0</v>
+        <v>346</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I135" s="1">
         <v>100.0</v>
@@ -5748,7 +5750,7 @@
         <v>240</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>242</v>
@@ -5757,13 +5759,13 @@
         <v>243</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="G136" s="4">
-        <v>45658.0</v>
+        <v>347</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I136" s="1">
         <v>100.0</v>
@@ -5774,7 +5776,7 @@
         <v>240</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>242</v>
@@ -5783,13 +5785,13 @@
         <v>243</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G137" s="4">
-        <v>45658.0</v>
+        <v>349</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I137" s="1">
         <v>100.0</v>
@@ -5800,7 +5802,7 @@
         <v>240</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>242</v>
@@ -5809,13 +5811,13 @@
         <v>243</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G138" s="4">
-        <v>45658.0</v>
+        <v>351</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I138" s="1">
         <v>100.0</v>
@@ -5826,7 +5828,7 @@
         <v>240</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>242</v>
@@ -5835,13 +5837,13 @@
         <v>243</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G139" s="4">
-        <v>45658.0</v>
+        <v>353</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I139" s="1">
         <v>100.0</v>
@@ -5852,7 +5854,7 @@
         <v>240</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>242</v>
@@ -5861,13 +5863,13 @@
         <v>243</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G140" s="4">
-        <v>45658.0</v>
+        <v>355</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I140" s="1">
         <v>100.0</v>
@@ -5878,7 +5880,7 @@
         <v>240</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>242</v>
@@ -5887,13 +5889,13 @@
         <v>243</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G141" s="4">
-        <v>45658.0</v>
+        <v>357</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I141" s="1">
         <v>100.0</v>
@@ -5904,7 +5906,7 @@
         <v>240</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>242</v>
@@ -5913,13 +5915,13 @@
         <v>243</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G142" s="4">
-        <v>45658.0</v>
+        <v>359</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I142" s="1">
         <v>100.0</v>
@@ -5930,7 +5932,7 @@
         <v>240</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>242</v>
@@ -5939,13 +5941,13 @@
         <v>243</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G143" s="4">
-        <v>45658.0</v>
+        <v>361</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I143" s="1">
         <v>100.0</v>
@@ -5956,7 +5958,7 @@
         <v>240</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>242</v>
@@ -5965,13 +5967,13 @@
         <v>243</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G144" s="4">
-        <v>45658.0</v>
+        <v>363</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I144" s="1">
         <v>100.0</v>
@@ -5982,7 +5984,7 @@
         <v>240</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>242</v>
@@ -5991,13 +5993,13 @@
         <v>243</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G145" s="4">
-        <v>45658.0</v>
+        <v>365</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I145" s="1">
         <v>100.0</v>
@@ -6008,7 +6010,7 @@
         <v>240</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>242</v>
@@ -6017,13 +6019,13 @@
         <v>243</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G146" s="4">
-        <v>45658.0</v>
+        <v>367</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I146" s="1">
         <v>100.0</v>
@@ -6034,7 +6036,7 @@
         <v>240</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>242</v>
@@ -6043,13 +6045,13 @@
         <v>243</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="G147" s="4">
-        <v>45658.0</v>
+        <v>369</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I147" s="1">
         <v>100.0</v>
@@ -6060,7 +6062,7 @@
         <v>240</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>242</v>
@@ -6069,13 +6071,13 @@
         <v>243</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G148" s="4">
-        <v>45658.0</v>
+        <v>370</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I148" s="1">
         <v>100.0</v>
@@ -6086,7 +6088,7 @@
         <v>240</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>242</v>
@@ -6095,13 +6097,13 @@
         <v>243</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="G149" s="4">
-        <v>45658.0</v>
+        <v>372</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I149" s="1">
         <v>100.0</v>
@@ -6112,7 +6114,7 @@
         <v>240</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>242</v>
@@ -6121,13 +6123,13 @@
         <v>243</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G150" s="4">
-        <v>45658.0</v>
+        <v>374</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I150" s="1">
         <v>100.0</v>
@@ -6138,7 +6140,7 @@
         <v>240</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>242</v>
@@ -6147,13 +6149,13 @@
         <v>243</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="G151" s="4">
-        <v>45658.0</v>
+        <v>376</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I151" s="1">
         <v>100.0</v>
@@ -6164,7 +6166,7 @@
         <v>240</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>242</v>
@@ -6173,13 +6175,13 @@
         <v>243</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="G152" s="4">
-        <v>45658.0</v>
+        <v>378</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I152" s="1">
         <v>100.0</v>
@@ -6190,7 +6192,7 @@
         <v>240</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>242</v>
@@ -6199,13 +6201,13 @@
         <v>243</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G153" s="4">
-        <v>45658.0</v>
+        <v>380</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I153" s="1">
         <v>100.0</v>
@@ -6216,7 +6218,7 @@
         <v>240</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>242</v>
@@ -6225,13 +6227,13 @@
         <v>243</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="G154" s="4">
-        <v>45658.0</v>
+        <v>381</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I154" s="1">
         <v>100.0</v>
@@ -6242,7 +6244,7 @@
         <v>240</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>242</v>
@@ -6251,13 +6253,13 @@
         <v>243</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G155" s="4">
-        <v>45658.0</v>
+        <v>383</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I155" s="1">
         <v>100.0</v>
@@ -6268,7 +6270,7 @@
         <v>240</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>242</v>
@@ -6277,13 +6279,13 @@
         <v>243</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G156" s="4">
-        <v>45658.0</v>
+        <v>385</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I156" s="1">
         <v>100.0</v>
@@ -6294,7 +6296,7 @@
         <v>240</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>242</v>
@@ -6303,13 +6305,13 @@
         <v>243</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="G157" s="4">
-        <v>45658.0</v>
+        <v>387</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I157" s="1">
         <v>100.0</v>
@@ -6320,7 +6322,7 @@
         <v>240</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>242</v>
@@ -6329,13 +6331,13 @@
         <v>243</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="G158" s="4">
-        <v>45658.0</v>
+        <v>389</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I158" s="1">
         <v>100.0</v>
@@ -6346,7 +6348,7 @@
         <v>240</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>242</v>
@@ -6355,13 +6357,13 @@
         <v>243</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G159" s="4">
-        <v>45658.0</v>
+        <v>391</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I159" s="1">
         <v>100.0</v>
@@ -6372,7 +6374,7 @@
         <v>240</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>242</v>
@@ -6381,13 +6383,13 @@
         <v>243</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G160" s="4">
-        <v>45658.0</v>
+        <v>393</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I160" s="1">
         <v>100.0</v>
@@ -6398,7 +6400,7 @@
         <v>240</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>242</v>
@@ -6407,13 +6409,13 @@
         <v>243</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="G161" s="4">
-        <v>45658.0</v>
+        <v>395</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I161" s="1">
         <v>100.0</v>
@@ -6424,7 +6426,7 @@
         <v>240</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>242</v>
@@ -6433,13 +6435,13 @@
         <v>243</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G162" s="4">
-        <v>45658.0</v>
+        <v>397</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I162" s="1">
         <v>100.0</v>
@@ -6450,7 +6452,7 @@
         <v>240</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>242</v>
@@ -6459,13 +6461,13 @@
         <v>243</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="G163" s="4">
-        <v>45658.0</v>
+        <v>399</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I163" s="1">
         <v>100.0</v>
@@ -6476,7 +6478,7 @@
         <v>240</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>242</v>
@@ -6485,13 +6487,13 @@
         <v>243</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="G164" s="4">
-        <v>45658.0</v>
+        <v>401</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I164" s="1">
         <v>100.0</v>
@@ -6502,7 +6504,7 @@
         <v>240</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>242</v>
@@ -6511,13 +6513,13 @@
         <v>243</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="G165" s="4">
-        <v>45658.0</v>
+        <v>403</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I165" s="1">
         <v>100.0</v>
@@ -6528,7 +6530,7 @@
         <v>240</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>242</v>
@@ -6537,13 +6539,13 @@
         <v>243</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="G166" s="4">
-        <v>45658.0</v>
+        <v>405</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I166" s="1">
         <v>100.0</v>
@@ -6554,7 +6556,7 @@
         <v>240</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>242</v>
@@ -6563,13 +6565,13 @@
         <v>243</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G167" s="4">
-        <v>45658.0</v>
+        <v>406</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I167" s="1">
         <v>100.0</v>
@@ -6580,7 +6582,7 @@
         <v>240</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>242</v>
@@ -6589,13 +6591,13 @@
         <v>243</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G168" s="4">
-        <v>45658.0</v>
+        <v>408</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I168" s="1">
         <v>100.0</v>
@@ -6606,7 +6608,7 @@
         <v>240</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>242</v>
@@ -6615,13 +6617,13 @@
         <v>243</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="G169" s="4">
-        <v>45658.0</v>
+        <v>409</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I169" s="1">
         <v>100.0</v>
@@ -6632,7 +6634,7 @@
         <v>240</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>242</v>
@@ -6641,13 +6643,13 @@
         <v>243</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="G170" s="4">
-        <v>45658.0</v>
+        <v>410</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I170" s="1">
         <v>100.0</v>
@@ -6658,7 +6660,7 @@
         <v>240</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>242</v>
@@ -6667,13 +6669,13 @@
         <v>243</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="G171" s="4">
-        <v>45658.0</v>
+        <v>411</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I171" s="1">
         <v>100.0</v>
@@ -6684,7 +6686,7 @@
         <v>240</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>242</v>
@@ -6693,13 +6695,13 @@
         <v>243</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="G172" s="4">
-        <v>45658.0</v>
+        <v>413</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I172" s="1">
         <v>100.0</v>
@@ -6710,7 +6712,7 @@
         <v>240</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>242</v>
@@ -6719,13 +6721,13 @@
         <v>243</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G173" s="4">
-        <v>45658.0</v>
+        <v>414</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I173" s="1">
         <v>100.0</v>
@@ -6736,7 +6738,7 @@
         <v>240</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>242</v>
@@ -6745,13 +6747,13 @@
         <v>243</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="G174" s="4">
-        <v>45658.0</v>
+        <v>416</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I174" s="1">
         <v>100.0</v>
@@ -6762,7 +6764,7 @@
         <v>240</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>242</v>
@@ -6771,13 +6773,13 @@
         <v>243</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="G175" s="4">
-        <v>45658.0</v>
+        <v>418</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I175" s="1">
         <v>100.0</v>
@@ -6788,7 +6790,7 @@
         <v>240</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>242</v>
@@ -6797,13 +6799,13 @@
         <v>243</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G176" s="4">
-        <v>45658.0</v>
+        <v>419</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I176" s="1">
         <v>100.0</v>
@@ -6814,7 +6816,7 @@
         <v>240</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>242</v>
@@ -6823,13 +6825,13 @@
         <v>243</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="G177" s="4">
-        <v>45658.0</v>
+        <v>421</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I177" s="1">
         <v>100.0</v>
@@ -6837,16 +6839,16 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>29</v>
@@ -6865,16 +6867,16 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>41</v>
@@ -6883,7 +6885,7 @@
         <v>117</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I179" s="1">
         <v>100.0</v>
@@ -6893,16 +6895,16 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>29</v>
@@ -6911,7 +6913,7 @@
         <v>50</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I180" s="1">
         <v>100.0</v>
@@ -6921,16 +6923,16 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>53</v>
@@ -6939,7 +6941,7 @@
         <v>117</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I181" s="1">
         <v>100.0</v>
@@ -6949,19 +6951,19 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>25</v>
@@ -6970,7 +6972,7 @@
         <v>26</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I182" s="1">
         <v>100.0</v>
@@ -6980,19 +6982,19 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>29</v>
@@ -7001,7 +7003,7 @@
         <v>30</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I183" s="1">
         <v>100.0</v>
@@ -7011,19 +7013,19 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>33</v>
@@ -7032,7 +7034,7 @@
         <v>34</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I184" s="1">
         <v>100.0</v>
@@ -7042,19 +7044,19 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>37</v>
@@ -7063,7 +7065,7 @@
         <v>164</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I185" s="1">
         <v>100.0</v>
@@ -7073,19 +7075,19 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>41</v>
@@ -7094,7 +7096,7 @@
         <v>42</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I186" s="1">
         <v>100.0</v>
@@ -7104,19 +7106,19 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>45</v>
@@ -7125,7 +7127,7 @@
         <v>50</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I187" s="1">
         <v>100.0</v>
@@ -7135,19 +7137,19 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>53</v>
@@ -7156,7 +7158,7 @@
         <v>54</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I188" s="1">
         <v>100.0</v>
@@ -7166,19 +7168,19 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>57</v>
@@ -7187,7 +7189,7 @@
         <v>58</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I189" s="1">
         <v>100.0</v>
@@ -7197,19 +7199,19 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>61</v>
@@ -7218,7 +7220,7 @@
         <v>69</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I190" s="1">
         <v>100.0</v>
@@ -7228,19 +7230,19 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>25</v>
@@ -7259,19 +7261,19 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>29</v>
@@ -7290,19 +7292,19 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>33</v>
@@ -7311,7 +7313,7 @@
         <v>34</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I193" s="1">
         <v>100.0</v>
@@ -7321,19 +7323,19 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>37</v>
@@ -7352,19 +7354,19 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>41</v>
@@ -7373,7 +7375,7 @@
         <v>42</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I195" s="1">
         <v>100.0</v>
@@ -7383,19 +7385,19 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>45</v>
@@ -7414,19 +7416,19 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>53</v>
@@ -7445,19 +7447,19 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>57</v>
@@ -7476,19 +7478,19 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>61</v>
@@ -7497,7 +7499,7 @@
         <v>69</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I199" s="1">
         <v>100.0</v>
@@ -7507,28 +7509,28 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I200" s="1">
         <v>100.0</v>
@@ -7536,25 +7538,25 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H201" s="2" t="s">
         <v>206</v>
@@ -7565,19 +7567,19 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>22</v>
@@ -7586,7 +7588,7 @@
         <v>23</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I202" s="1">
         <v>100.0</v>
@@ -7596,19 +7598,19 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>25</v>
@@ -7617,7 +7619,7 @@
         <v>26</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I203" s="1">
         <v>100.0</v>
@@ -7627,19 +7629,19 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>29</v>
@@ -7658,19 +7660,19 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>33</v>
@@ -7679,7 +7681,7 @@
         <v>34</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I205" s="1">
         <v>100.0</v>
@@ -7689,19 +7691,19 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>37</v>
@@ -7720,19 +7722,19 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>41</v>
@@ -7751,19 +7753,19 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>45</v>
@@ -7782,19 +7784,19 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>53</v>
@@ -7813,19 +7815,19 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>18</v>
@@ -7834,7 +7836,7 @@
         <v>19</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I210" s="1">
         <v>100.0</v>
@@ -7844,19 +7846,19 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>14</v>
@@ -7875,19 +7877,19 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>18</v>
@@ -7906,19 +7908,19 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>22</v>
@@ -7937,19 +7939,19 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>25</v>
@@ -7968,19 +7970,19 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>33</v>
@@ -7999,19 +8001,19 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>41</v>
@@ -8020,7 +8022,7 @@
         <v>42</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I216" s="1">
         <v>100.0</v>
@@ -8030,16 +8032,16 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>25</v>
@@ -8058,16 +8060,16 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>494</v>
-      </c>
       <c r="D218" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>29</v>
@@ -8076,7 +8078,7 @@
         <v>30</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I218" s="1">
         <v>100.0</v>
@@ -8086,16 +8088,16 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>33</v>
@@ -8104,7 +8106,7 @@
         <v>34</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I219" s="1">
         <v>100.0</v>
@@ -8114,16 +8116,16 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>37</v>
@@ -8132,7 +8134,7 @@
         <v>164</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I220" s="1">
         <v>100.0</v>
@@ -8142,16 +8144,16 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>41</v>
@@ -8160,7 +8162,7 @@
         <v>42</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I221" s="1">
         <v>100.0</v>
@@ -8170,16 +8172,16 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>45</v>
@@ -8188,7 +8190,7 @@
         <v>50</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I222" s="1">
         <v>100.0</v>
@@ -8198,16 +8200,16 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>53</v>
@@ -8216,7 +8218,7 @@
         <v>54</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I223" s="1">
         <v>100.0</v>
@@ -8226,16 +8228,16 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>57</v>
@@ -8244,7 +8246,7 @@
         <v>58</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I224" s="1">
         <v>100.0</v>
@@ -8254,16 +8256,16 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>61</v>
@@ -8272,7 +8274,7 @@
         <v>69</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I225" s="1">
         <v>100.0</v>
@@ -8282,16 +8284,16 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>72</v>
@@ -8310,16 +8312,16 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>76</v>
@@ -8328,7 +8330,7 @@
         <v>85</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I227" s="1">
         <v>100.0</v>
@@ -8338,16 +8340,16 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>87</v>
@@ -8356,7 +8358,7 @@
         <v>88</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I228" s="1">
         <v>100.0</v>
@@ -8366,16 +8368,16 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>93</v>
@@ -8384,7 +8386,7 @@
         <v>117</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I229" s="1">
         <v>100.0</v>
@@ -8394,16 +8396,16 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>97</v>
@@ -8422,16 +8424,16 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>29</v>
@@ -8440,7 +8442,7 @@
         <v>30</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I231" s="1">
         <v>100.0</v>
@@ -8450,16 +8452,16 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="D232" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>33</v>
@@ -8468,7 +8470,7 @@
         <v>34</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I232" s="1">
         <v>100.0</v>
@@ -8478,16 +8480,16 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>37</v>
@@ -8496,7 +8498,7 @@
         <v>164</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I233" s="1">
         <v>100.0</v>
@@ -8506,16 +8508,16 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>41</v>
@@ -8524,7 +8526,7 @@
         <v>42</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I234" s="1">
         <v>100.0</v>
@@ -8534,16 +8536,16 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>45</v>
@@ -8552,7 +8554,7 @@
         <v>50</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I235" s="1">
         <v>100.0</v>
@@ -8562,16 +8564,16 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>53</v>
@@ -8580,7 +8582,7 @@
         <v>54</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I236" s="1">
         <v>100.0</v>
@@ -8590,16 +8592,16 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>57</v>
@@ -8608,7 +8610,7 @@
         <v>58</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I237" s="1">
         <v>100.0</v>
@@ -8618,16 +8620,16 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>61</v>
@@ -8636,7 +8638,7 @@
         <v>69</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I238" s="1">
         <v>100.0</v>
@@ -8646,16 +8648,16 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>72</v>
@@ -8664,7 +8666,7 @@
         <v>73</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I239" s="1">
         <v>100.0</v>
@@ -8674,16 +8676,16 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>76</v>
@@ -8692,7 +8694,7 @@
         <v>85</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I240" s="1">
         <v>100.0</v>
@@ -8702,16 +8704,16 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>87</v>
@@ -8720,7 +8722,7 @@
         <v>88</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I241" s="1">
         <v>100.0</v>
@@ -8730,16 +8732,16 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>93</v>
@@ -8748,7 +8750,7 @@
         <v>117</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I242" s="1">
         <v>100.0</v>
@@ -8758,16 +8760,16 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>29</v>
@@ -8776,7 +8778,7 @@
         <v>164</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I243" s="1">
         <v>100.0</v>
@@ -8786,16 +8788,16 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>41</v>
@@ -8804,7 +8806,7 @@
         <v>117</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I244" s="1">
         <v>100.0</v>
@@ -8814,25 +8816,25 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I245" s="1">
         <v>100.0</v>
@@ -8840,16 +8842,16 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>29</v>
@@ -8858,7 +8860,7 @@
         <v>30</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I246" s="1">
         <v>100.0</v>
@@ -8868,16 +8870,16 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>33</v>
@@ -8896,16 +8898,16 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>37</v>
@@ -8924,16 +8926,16 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>41</v>
@@ -8952,16 +8954,16 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>45</v>
@@ -8970,7 +8972,7 @@
         <v>50</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I250" s="1">
         <v>100.0</v>
@@ -8980,16 +8982,16 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>53</v>
@@ -9008,16 +9010,16 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>57</v>
@@ -9036,16 +9038,16 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>61</v>
@@ -9054,7 +9056,7 @@
         <v>69</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I253" s="1">
         <v>100.0</v>
@@ -9064,16 +9066,16 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>72</v>
@@ -9092,16 +9094,16 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>76</v>
@@ -9110,7 +9112,7 @@
         <v>85</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I255" s="1">
         <v>100.0</v>
@@ -9120,16 +9122,16 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>87</v>
@@ -9138,7 +9140,7 @@
         <v>88</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I256" s="1">
         <v>100.0</v>
@@ -9148,16 +9150,16 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>93</v>
@@ -9176,16 +9178,16 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>29</v>
@@ -9194,7 +9196,7 @@
         <v>30</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I258" s="1">
         <v>100.0</v>
@@ -9204,16 +9206,16 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C259" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="D259" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>41</v>
@@ -9232,16 +9234,16 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>29</v>
@@ -9250,7 +9252,7 @@
         <v>34</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I260" s="1">
         <v>100.0</v>
@@ -9260,16 +9262,16 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C261" s="1" t="s">
-        <v>572</v>
-      </c>
       <c r="D261" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>37</v>
@@ -9278,7 +9280,7 @@
         <v>50</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I261" s="1">
         <v>100.0</v>
@@ -9288,16 +9290,16 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>53</v>
@@ -9306,7 +9308,7 @@
         <v>69</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I262" s="1">
         <v>100.0</v>
@@ -9316,16 +9318,16 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>72</v>
@@ -9334,7 +9336,7 @@
         <v>117</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I263" s="1">
         <v>100.0</v>
@@ -12975,10 +12977,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2">
@@ -12989,7 +12991,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3">
@@ -13000,7 +13002,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4">
@@ -13011,7 +13013,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5">
@@ -13022,7 +13024,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6">
@@ -13033,7 +13035,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7">
@@ -13044,134 +13046,134 @@
         <v>243</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/labels.xlsx
+++ b/labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gblair/github/deportationdata.org/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4430255-BA14-9E45-AEC0-09FFB5C41569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F82D5E0-B42E-0545-BF9E-00CD08867545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6800" uniqueCount="2454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6812" uniqueCount="2456">
   <si>
     <t>Location</t>
   </si>
@@ -7385,6 +7385,12 @@
   </si>
   <si>
     <t>sheet; Event Date; Responsible AOR; Responsible Site; Lead Event Type; Lead Source; Event Type; Final Program; Final Program Group; Encounter Criminality; Processing Disposition; Case Status; Case Category; Departed Date; Departure Country; Final Order Yes No; Final Order Date; Birth Date; Birth Year; Citizenship Country; Gender; Alien File Number; EID Case ID; EID Subject ID; Unique Identifier</t>
+  </si>
+  <si>
+    <t>Deportation Data Project</t>
+  </si>
+  <si>
+    <t>https://deportationdata.org</t>
   </si>
 </sst>
 </file>
@@ -7395,7 +7401,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7436,6 +7442,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7454,10 +7468,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -7477,8 +7492,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7697,8 +7714,8 @@
   </sheetPr>
   <dimension ref="A1:P268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="H279" sqref="H279"/>
+    <sheetView topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265:A268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15731,9 +15748,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15942,6 +15961,50 @@
       </c>
       <c r="C18" s="8" t="s">
         <v>640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>2455</v>
       </c>
     </row>
   </sheetData>

--- a/labels.xlsx
+++ b/labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gblair/github/deportationdata.org/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F82D5E0-B42E-0545-BF9E-00CD08867545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619CC125-842D-314D-9AE7-3B6A56814832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6812" uniqueCount="2456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6812" uniqueCount="2457">
   <si>
     <t>Location</t>
   </si>
@@ -7391,6 +7391,9 @@
   </si>
   <si>
     <t>https://deportationdata.org</t>
+  </si>
+  <si>
+    <t>eoir/courts_0303</t>
   </si>
 </sst>
 </file>
@@ -7401,7 +7404,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7450,6 +7453,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7472,7 +7482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -7492,6 +7502,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -7714,8 +7725,8 @@
   </sheetPr>
   <dimension ref="A1:P268"/>
   <sheetViews>
-    <sheetView topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265:A268"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12738,7 +12749,7 @@
     </row>
     <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>363</v>
@@ -12768,7 +12779,7 @@
     </row>
     <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>368</v>
@@ -12798,7 +12809,7 @@
     </row>
     <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>370</v>
@@ -12828,7 +12839,7 @@
     </row>
     <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>373</v>
@@ -12858,7 +12869,7 @@
     </row>
     <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>376</v>
@@ -12888,7 +12899,7 @@
     </row>
     <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>379</v>
@@ -12918,7 +12929,7 @@
     </row>
     <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>382</v>
@@ -12948,7 +12959,7 @@
     </row>
     <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>384</v>
@@ -12978,7 +12989,7 @@
     </row>
     <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>387</v>
@@ -13008,7 +13019,7 @@
     </row>
     <row r="177" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>389</v>
@@ -13038,7 +13049,7 @@
     </row>
     <row r="178" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>392</v>
@@ -13068,7 +13079,7 @@
     </row>
     <row r="179" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>394</v>
@@ -13098,7 +13109,7 @@
     </row>
     <row r="180" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>397</v>
@@ -13128,7 +13139,7 @@
     </row>
     <row r="181" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>400</v>
@@ -13158,7 +13169,7 @@
     </row>
     <row r="182" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>402</v>
@@ -13188,7 +13199,7 @@
     </row>
     <row r="183" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>405</v>
@@ -13218,7 +13229,7 @@
     </row>
     <row r="184" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>408</v>
@@ -13248,7 +13259,7 @@
     </row>
     <row r="185" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>410</v>
@@ -13278,7 +13289,7 @@
     </row>
     <row r="186" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>412</v>
@@ -13308,7 +13319,7 @@
     </row>
     <row r="187" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>415</v>
@@ -13338,7 +13349,7 @@
     </row>
     <row r="188" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>417</v>
@@ -13368,7 +13379,7 @@
     </row>
     <row r="189" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>420</v>
@@ -13398,7 +13409,7 @@
     </row>
     <row r="190" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>423</v>
@@ -13428,7 +13439,7 @@
     </row>
     <row r="191" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>426</v>
@@ -13458,7 +13469,7 @@
     </row>
     <row r="192" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>429</v>
@@ -13488,7 +13499,7 @@
     </row>
     <row r="193" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>432</v>
@@ -13518,7 +13529,7 @@
     </row>
     <row r="194" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>435</v>
@@ -13548,7 +13559,7 @@
     </row>
     <row r="195" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>438</v>
@@ -13578,7 +13589,7 @@
     </row>
     <row r="196" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>441</v>
@@ -13608,7 +13619,7 @@
     </row>
     <row r="197" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>444</v>
@@ -13638,7 +13649,7 @@
     </row>
     <row r="198" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>447</v>
@@ -13668,7 +13679,7 @@
     </row>
     <row r="199" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>450</v>
@@ -13698,7 +13709,7 @@
     </row>
     <row r="200" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>453</v>
@@ -13728,7 +13739,7 @@
     </row>
     <row r="201" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>456</v>
@@ -13758,7 +13769,7 @@
     </row>
     <row r="202" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>459</v>
@@ -13788,7 +13799,7 @@
     </row>
     <row r="203" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>462</v>
@@ -13818,7 +13829,7 @@
     </row>
     <row r="204" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>465</v>
@@ -13848,7 +13859,7 @@
     </row>
     <row r="205" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>468</v>
@@ -13878,7 +13889,7 @@
     </row>
     <row r="206" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>471</v>
@@ -13908,7 +13919,7 @@
     </row>
     <row r="207" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>474</v>
@@ -13938,7 +13949,7 @@
     </row>
     <row r="208" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>476</v>
@@ -13968,7 +13979,7 @@
     </row>
     <row r="209" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>478</v>
@@ -13998,7 +14009,7 @@
     </row>
     <row r="210" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>481</v>
@@ -14028,7 +14039,7 @@
     </row>
     <row r="211" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>484</v>
@@ -14058,7 +14069,7 @@
     </row>
     <row r="212" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>487</v>
@@ -14088,7 +14099,7 @@
     </row>
     <row r="213" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>490</v>
@@ -14118,7 +14129,7 @@
     </row>
     <row r="214" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>493</v>
@@ -14148,7 +14159,7 @@
     </row>
     <row r="215" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>496</v>
@@ -14178,7 +14189,7 @@
     </row>
     <row r="216" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>499</v>
@@ -14208,7 +14219,7 @@
     </row>
     <row r="217" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>502</v>
@@ -14238,7 +14249,7 @@
     </row>
     <row r="218" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>505</v>
@@ -14268,7 +14279,7 @@
     </row>
     <row r="219" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>507</v>
@@ -14298,7 +14309,7 @@
     </row>
     <row r="220" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>510</v>
@@ -14328,7 +14339,7 @@
     </row>
     <row r="221" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>513</v>
@@ -14358,7 +14369,7 @@
     </row>
     <row r="222" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>516</v>
@@ -14388,7 +14399,7 @@
     </row>
     <row r="223" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>518</v>
@@ -14418,7 +14429,7 @@
     </row>
     <row r="224" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>521</v>
@@ -14448,7 +14459,7 @@
     </row>
     <row r="225" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>524</v>
@@ -14478,7 +14489,7 @@
     </row>
     <row r="226" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>527</v>
@@ -14508,7 +14519,7 @@
     </row>
     <row r="227" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>530</v>
@@ -14538,7 +14549,7 @@
     </row>
     <row r="228" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>533</v>
@@ -14568,7 +14579,7 @@
     </row>
     <row r="229" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>536</v>
@@ -14598,7 +14609,7 @@
     </row>
     <row r="230" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>539</v>
@@ -14628,7 +14639,7 @@
     </row>
     <row r="231" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>542</v>
@@ -14658,7 +14669,7 @@
     </row>
     <row r="232" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>545</v>
@@ -14688,7 +14699,7 @@
     </row>
     <row r="233" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>548</v>
@@ -14718,7 +14729,7 @@
     </row>
     <row r="234" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>551</v>
@@ -14748,7 +14759,7 @@
     </row>
     <row r="235" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>553</v>
@@ -14778,7 +14789,7 @@
     </row>
     <row r="236" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>555</v>
@@ -14808,7 +14819,7 @@
     </row>
     <row r="237" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>558</v>
@@ -14838,7 +14849,7 @@
     </row>
     <row r="238" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>561</v>
@@ -14868,7 +14879,7 @@
     </row>
     <row r="239" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>564</v>
@@ -14898,7 +14909,7 @@
     </row>
     <row r="240" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>567</v>
@@ -14928,7 +14939,7 @@
     </row>
     <row r="241" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>569</v>
@@ -14958,7 +14969,7 @@
     </row>
     <row r="242" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>572</v>
@@ -14988,7 +14999,7 @@
     </row>
     <row r="243" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>575</v>
@@ -15018,7 +15029,7 @@
     </row>
     <row r="244" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>578</v>
@@ -15048,7 +15059,7 @@
     </row>
     <row r="245" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>581</v>
@@ -15078,7 +15089,7 @@
     </row>
     <row r="246" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>584</v>
@@ -15108,7 +15119,7 @@
     </row>
     <row r="247" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>587</v>
@@ -15138,7 +15149,7 @@
     </row>
     <row r="248" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>590</v>
@@ -15168,7 +15179,7 @@
     </row>
     <row r="249" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>593</v>
@@ -15198,7 +15209,7 @@
     </row>
     <row r="250" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>596</v>
@@ -15228,7 +15239,7 @@
     </row>
     <row r="251" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>599</v>
@@ -15258,7 +15269,7 @@
     </row>
     <row r="252" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>602</v>
@@ -15288,7 +15299,7 @@
     </row>
     <row r="253" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>605</v>
@@ -15318,7 +15329,7 @@
     </row>
     <row r="254" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>607</v>
@@ -15348,7 +15359,7 @@
     </row>
     <row r="255" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>610</v>
@@ -15378,7 +15389,7 @@
     </row>
     <row r="256" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>612</v>
@@ -15408,7 +15419,7 @@
     </row>
     <row r="257" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>614</v>
@@ -15438,7 +15449,7 @@
     </row>
     <row r="258" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>616</v>
@@ -15468,7 +15479,7 @@
     </row>
     <row r="259" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>619</v>
@@ -15498,7 +15509,7 @@
     </row>
     <row r="260" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>621</v>
@@ -15528,7 +15539,7 @@
     </row>
     <row r="261" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>623</v>
@@ -15558,7 +15569,7 @@
     </row>
     <row r="262" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>626</v>
@@ -15588,7 +15599,7 @@
     </row>
     <row r="263" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>628</v>
@@ -15618,7 +15629,7 @@
     </row>
     <row r="264" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>630</v>
@@ -15647,7 +15658,7 @@
       </c>
     </row>
     <row r="265" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A265" t="s">
+      <c r="A265" s="13" t="s">
         <v>2435</v>
       </c>
       <c r="B265" t="s">
@@ -15670,7 +15681,7 @@
       </c>
     </row>
     <row r="266" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A266" t="s">
+      <c r="A266" s="13" t="s">
         <v>2439</v>
       </c>
       <c r="B266" t="s">
@@ -15750,8 +15761,8 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15970,7 +15981,7 @@
       <c r="B19" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>2455</v>
       </c>
     </row>
@@ -15981,7 +15992,7 @@
       <c r="B20" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>2455</v>
       </c>
     </row>
@@ -15992,7 +16003,7 @@
       <c r="B21" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>2455</v>
       </c>
     </row>
@@ -16003,7 +16014,7 @@
       <c r="B22" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>2455</v>
       </c>
     </row>

--- a/labels.xlsx
+++ b/labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gblair/github/deportationdata.org/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619CC125-842D-314D-9AE7-3B6A56814832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01E6B60-6E7D-5B44-84EE-41595C74E33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -7725,7 +7725,7 @@
   </sheetPr>
   <dimension ref="A1:P268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+    <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
@@ -15761,8 +15761,8 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15838,7 +15838,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>362</v>
+        <v>2456</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>365</v>

--- a/labels.xlsx
+++ b/labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gblair/github/deportationdata.org/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01E6B60-6E7D-5B44-84EE-41595C74E33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BBA0F9-0BC3-F844-831B-DF57A5F4EA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6812" uniqueCount="2457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6820" uniqueCount="2460">
   <si>
     <t>Location</t>
   </si>
@@ -7394,15 +7394,25 @@
   </si>
   <si>
     <t>eoir/courts_0303</t>
+  </si>
+  <si>
+    <t>2023-11-15 "2025-02-17"</t>
+  </si>
+  <si>
+    <t>Mid Nov. 2023</t>
+  </si>
+  <si>
+    <t>Mid Feb. 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -7482,7 +7492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -7504,6 +7514,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7723,14 +7734,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P268"/>
+  <dimension ref="A1:P273"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="J181" sqref="J181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="74.6640625" customWidth="1"/>
     <col min="3" max="5" width="12.6640625" hidden="1"/>
     <col min="11" max="11" width="67.6640625" customWidth="1"/>
@@ -12765,7 +12777,7 @@
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>366</v>
@@ -12795,7 +12807,7 @@
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>54</v>
@@ -12825,7 +12837,7 @@
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>371</v>
@@ -12855,7 +12867,7 @@
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>374</v>
@@ -12885,7 +12897,7 @@
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>377</v>
@@ -12915,7 +12927,7 @@
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>380</v>
@@ -12945,7 +12957,7 @@
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>106</v>
@@ -12975,7 +12987,7 @@
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>385</v>
@@ -13005,7 +13017,7 @@
       </c>
       <c r="F176" s="6"/>
       <c r="G176" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>366</v>
@@ -13035,7 +13047,7 @@
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>390</v>
@@ -13065,7 +13077,7 @@
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>56</v>
@@ -13095,7 +13107,7 @@
       </c>
       <c r="F179" s="6"/>
       <c r="G179" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>395</v>
@@ -13125,7 +13137,7 @@
       </c>
       <c r="F180" s="6"/>
       <c r="G180" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>398</v>
@@ -13155,7 +13167,7 @@
       </c>
       <c r="F181" s="6"/>
       <c r="G181" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>366</v>
@@ -13185,7 +13197,7 @@
       </c>
       <c r="F182" s="6"/>
       <c r="G182" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>403</v>
@@ -13215,7 +13227,7 @@
       </c>
       <c r="F183" s="6"/>
       <c r="G183" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>406</v>
@@ -13245,7 +13257,7 @@
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>125</v>
@@ -13275,7 +13287,7 @@
       </c>
       <c r="F185" s="6"/>
       <c r="G185" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>64</v>
@@ -13305,7 +13317,7 @@
       </c>
       <c r="F186" s="6"/>
       <c r="G186" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>413</v>
@@ -13335,7 +13347,7 @@
       </c>
       <c r="F187" s="6"/>
       <c r="G187" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>406</v>
@@ -13365,7 +13377,7 @@
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>418</v>
@@ -13395,7 +13407,7 @@
       </c>
       <c r="F189" s="6"/>
       <c r="G189" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>421</v>
@@ -13425,7 +13437,7 @@
       </c>
       <c r="F190" s="6"/>
       <c r="G190" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>424</v>
@@ -13455,7 +13467,7 @@
       </c>
       <c r="F191" s="6"/>
       <c r="G191" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>427</v>
@@ -13485,7 +13497,7 @@
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>430</v>
@@ -13515,7 +13527,7 @@
       </c>
       <c r="F193" s="6"/>
       <c r="G193" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>433</v>
@@ -13545,7 +13557,7 @@
       </c>
       <c r="F194" s="6"/>
       <c r="G194" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>436</v>
@@ -13575,7 +13587,7 @@
       </c>
       <c r="F195" s="6"/>
       <c r="G195" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>439</v>
@@ -13605,7 +13617,7 @@
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>442</v>
@@ -13635,7 +13647,7 @@
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>445</v>
@@ -13665,7 +13677,7 @@
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>448</v>
@@ -13695,7 +13707,7 @@
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>451</v>
@@ -13725,7 +13737,7 @@
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>454</v>
@@ -13755,7 +13767,7 @@
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>457</v>
@@ -13785,7 +13797,7 @@
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>460</v>
@@ -13815,7 +13827,7 @@
       </c>
       <c r="F203" s="6"/>
       <c r="G203" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>463</v>
@@ -13845,7 +13857,7 @@
       </c>
       <c r="F204" s="6"/>
       <c r="G204" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>466</v>
@@ -13875,7 +13887,7 @@
       </c>
       <c r="F205" s="6"/>
       <c r="G205" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>469</v>
@@ -13905,7 +13917,7 @@
       </c>
       <c r="F206" s="6"/>
       <c r="G206" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>472</v>
@@ -13935,7 +13947,7 @@
       </c>
       <c r="F207" s="6"/>
       <c r="G207" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>460</v>
@@ -13965,7 +13977,7 @@
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>460</v>
@@ -13995,7 +14007,7 @@
       </c>
       <c r="F209" s="6"/>
       <c r="G209" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>479</v>
@@ -14025,7 +14037,7 @@
       </c>
       <c r="F210" s="6"/>
       <c r="G210" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>482</v>
@@ -14055,7 +14067,7 @@
       </c>
       <c r="F211" s="6"/>
       <c r="G211" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>485</v>
@@ -14085,7 +14097,7 @@
       </c>
       <c r="F212" s="6"/>
       <c r="G212" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>488</v>
@@ -14115,7 +14127,7 @@
       </c>
       <c r="F213" s="6"/>
       <c r="G213" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>491</v>
@@ -14145,7 +14157,7 @@
       </c>
       <c r="F214" s="6"/>
       <c r="G214" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>494</v>
@@ -14175,7 +14187,7 @@
       </c>
       <c r="F215" s="6"/>
       <c r="G215" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>497</v>
@@ -14205,7 +14217,7 @@
       </c>
       <c r="F216" s="6"/>
       <c r="G216" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>500</v>
@@ -14235,7 +14247,7 @@
       </c>
       <c r="F217" s="6"/>
       <c r="G217" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>503</v>
@@ -14265,7 +14277,7 @@
       </c>
       <c r="F218" s="6"/>
       <c r="G218" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>451</v>
@@ -14295,7 +14307,7 @@
       </c>
       <c r="F219" s="6"/>
       <c r="G219" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>508</v>
@@ -14325,7 +14337,7 @@
       </c>
       <c r="F220" s="6"/>
       <c r="G220" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>511</v>
@@ -14355,7 +14367,7 @@
       </c>
       <c r="F221" s="6"/>
       <c r="G221" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>514</v>
@@ -14385,7 +14397,7 @@
       </c>
       <c r="F222" s="6"/>
       <c r="G222" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>460</v>
@@ -14415,7 +14427,7 @@
       </c>
       <c r="F223" s="6"/>
       <c r="G223" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>519</v>
@@ -14445,7 +14457,7 @@
       </c>
       <c r="F224" s="6"/>
       <c r="G224" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>522</v>
@@ -14475,7 +14487,7 @@
       </c>
       <c r="F225" s="6"/>
       <c r="G225" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>525</v>
@@ -14505,7 +14517,7 @@
       </c>
       <c r="F226" s="6"/>
       <c r="G226" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>528</v>
@@ -14535,7 +14547,7 @@
       </c>
       <c r="F227" s="6"/>
       <c r="G227" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>531</v>
@@ -14565,7 +14577,7 @@
       </c>
       <c r="F228" s="6"/>
       <c r="G228" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>534</v>
@@ -14595,7 +14607,7 @@
       </c>
       <c r="F229" s="6"/>
       <c r="G229" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>537</v>
@@ -14625,7 +14637,7 @@
       </c>
       <c r="F230" s="6"/>
       <c r="G230" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>540</v>
@@ -14655,7 +14667,7 @@
       </c>
       <c r="F231" s="6"/>
       <c r="G231" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>543</v>
@@ -14685,7 +14697,7 @@
       </c>
       <c r="F232" s="6"/>
       <c r="G232" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>546</v>
@@ -14715,7 +14727,7 @@
       </c>
       <c r="F233" s="6"/>
       <c r="G233" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>549</v>
@@ -14745,7 +14757,7 @@
       </c>
       <c r="F234" s="6"/>
       <c r="G234" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>479</v>
@@ -14775,7 +14787,7 @@
       </c>
       <c r="F235" s="6"/>
       <c r="G235" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>427</v>
@@ -14805,7 +14817,7 @@
       </c>
       <c r="F236" s="6"/>
       <c r="G236" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>556</v>
@@ -14835,7 +14847,7 @@
       </c>
       <c r="F237" s="6"/>
       <c r="G237" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>559</v>
@@ -14865,7 +14877,7 @@
       </c>
       <c r="F238" s="6"/>
       <c r="G238" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>562</v>
@@ -14895,7 +14907,7 @@
       </c>
       <c r="F239" s="6"/>
       <c r="G239" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>565</v>
@@ -14925,7 +14937,7 @@
       </c>
       <c r="F240" s="6"/>
       <c r="G240" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>430</v>
@@ -14955,7 +14967,7 @@
       </c>
       <c r="F241" s="6"/>
       <c r="G241" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>570</v>
@@ -14985,7 +14997,7 @@
       </c>
       <c r="F242" s="6"/>
       <c r="G242" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>573</v>
@@ -15015,7 +15027,7 @@
       </c>
       <c r="F243" s="6"/>
       <c r="G243" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>576</v>
@@ -15045,7 +15057,7 @@
       </c>
       <c r="F244" s="6"/>
       <c r="G244" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>579</v>
@@ -15075,7 +15087,7 @@
       </c>
       <c r="F245" s="6"/>
       <c r="G245" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>582</v>
@@ -15105,7 +15117,7 @@
       </c>
       <c r="F246" s="6"/>
       <c r="G246" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>585</v>
@@ -15135,7 +15147,7 @@
       </c>
       <c r="F247" s="6"/>
       <c r="G247" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>588</v>
@@ -15165,7 +15177,7 @@
       </c>
       <c r="F248" s="6"/>
       <c r="G248" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>591</v>
@@ -15195,7 +15207,7 @@
       </c>
       <c r="F249" s="6"/>
       <c r="G249" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>594</v>
@@ -15225,7 +15237,7 @@
       </c>
       <c r="F250" s="6"/>
       <c r="G250" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>597</v>
@@ -15255,7 +15267,7 @@
       </c>
       <c r="F251" s="6"/>
       <c r="G251" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>600</v>
@@ -15285,7 +15297,7 @@
       </c>
       <c r="F252" s="6"/>
       <c r="G252" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>603</v>
@@ -15315,7 +15327,7 @@
       </c>
       <c r="F253" s="6"/>
       <c r="G253" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>460</v>
@@ -15345,7 +15357,7 @@
       </c>
       <c r="F254" s="6"/>
       <c r="G254" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>608</v>
@@ -15375,7 +15387,7 @@
       </c>
       <c r="F255" s="6"/>
       <c r="G255" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>479</v>
@@ -15405,7 +15417,7 @@
       </c>
       <c r="F256" s="6"/>
       <c r="G256" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>479</v>
@@ -15435,7 +15447,7 @@
       </c>
       <c r="F257" s="6"/>
       <c r="G257" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>600</v>
@@ -15465,7 +15477,7 @@
       </c>
       <c r="F258" s="6"/>
       <c r="G258" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>617</v>
@@ -15495,7 +15507,7 @@
       </c>
       <c r="F259" s="6"/>
       <c r="G259" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>600</v>
@@ -15525,7 +15537,7 @@
       </c>
       <c r="F260" s="6"/>
       <c r="G260" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>99</v>
@@ -15555,7 +15567,7 @@
       </c>
       <c r="F261" s="6"/>
       <c r="G261" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>624</v>
@@ -15585,7 +15597,7 @@
       </c>
       <c r="F262" s="6"/>
       <c r="G262" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>460</v>
@@ -15615,7 +15627,7 @@
       </c>
       <c r="F263" s="6"/>
       <c r="G263" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>337</v>
@@ -15645,7 +15657,7 @@
       </c>
       <c r="F264" s="6"/>
       <c r="G264" s="3">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>631</v>
@@ -15657,7 +15669,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="13" t="s">
         <v>2435</v>
       </c>
@@ -15669,6 +15681,12 @@
       </c>
       <c r="D265" t="s">
         <v>13</v>
+      </c>
+      <c r="F265" s="15" t="s">
+        <v>2458</v>
+      </c>
+      <c r="G265" s="3">
+        <v>45719</v>
       </c>
       <c r="H265" t="s">
         <v>92</v>
@@ -15693,6 +15711,12 @@
       <c r="D266" t="s">
         <v>13</v>
       </c>
+      <c r="F266" s="15" t="s">
+        <v>2458</v>
+      </c>
+      <c r="G266" s="15" t="s">
+        <v>2459</v>
+      </c>
       <c r="H266" t="s">
         <v>2442</v>
       </c>
@@ -15716,6 +15740,12 @@
       <c r="D267" t="s">
         <v>13</v>
       </c>
+      <c r="F267" s="15" t="s">
+        <v>2458</v>
+      </c>
+      <c r="G267" s="15" t="s">
+        <v>2459</v>
+      </c>
       <c r="H267" t="s">
         <v>2447</v>
       </c>
@@ -15739,6 +15769,12 @@
       <c r="D268" t="s">
         <v>13</v>
       </c>
+      <c r="F268" s="15" t="s">
+        <v>2458</v>
+      </c>
+      <c r="G268" s="15" t="s">
+        <v>2459</v>
+      </c>
       <c r="H268" t="s">
         <v>2452</v>
       </c>
@@ -15747,6 +15783,11 @@
       </c>
       <c r="J268" t="s">
         <v>2453</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B273" s="13" t="s">
+        <v>2457</v>
       </c>
     </row>
   </sheetData>
@@ -15761,8 +15802,8 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15975,7 +16016,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="A19" s="13" t="s">
         <v>2435</v>
       </c>
       <c r="B19" s="1" t="s">

--- a/labels.xlsx
+++ b/labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gblair/github/deportationdata.org/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BBA0F9-0BC3-F844-831B-DF57A5F4EA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FC78D4-6A15-DB47-8843-35323416BD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6820" uniqueCount="2460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6819" uniqueCount="2459">
   <si>
     <t>Location</t>
   </si>
@@ -7394,9 +7394,6 @@
   </si>
   <si>
     <t>eoir/courts_0303</t>
-  </si>
-  <si>
-    <t>2023-11-15 "2025-02-17"</t>
   </si>
   <si>
     <t>Mid Nov. 2023</t>
@@ -7736,8 +7733,8 @@
   </sheetPr>
   <dimension ref="A1:P273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="J181" sqref="J181"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15683,7 +15680,7 @@
         <v>13</v>
       </c>
       <c r="F265" s="15" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="G265" s="3">
         <v>45719</v>
@@ -15712,10 +15709,10 @@
         <v>13</v>
       </c>
       <c r="F266" s="15" t="s">
+        <v>2457</v>
+      </c>
+      <c r="G266" s="15" t="s">
         <v>2458</v>
-      </c>
-      <c r="G266" s="15" t="s">
-        <v>2459</v>
       </c>
       <c r="H266" t="s">
         <v>2442</v>
@@ -15741,10 +15738,10 @@
         <v>13</v>
       </c>
       <c r="F267" s="15" t="s">
+        <v>2457</v>
+      </c>
+      <c r="G267" s="15" t="s">
         <v>2458</v>
-      </c>
-      <c r="G267" s="15" t="s">
-        <v>2459</v>
       </c>
       <c r="H267" t="s">
         <v>2447</v>
@@ -15770,10 +15767,10 @@
         <v>13</v>
       </c>
       <c r="F268" s="15" t="s">
+        <v>2457</v>
+      </c>
+      <c r="G268" s="15" t="s">
         <v>2458</v>
-      </c>
-      <c r="G268" s="15" t="s">
-        <v>2459</v>
       </c>
       <c r="H268" t="s">
         <v>2452</v>
@@ -15786,9 +15783,7 @@
       </c>
     </row>
     <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B273" s="13" t="s">
-        <v>2457</v>
-      </c>
+      <c r="B273" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/labels.xlsx
+++ b/labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gblair/github/deportationdata.org/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FC78D4-6A15-DB47-8843-35323416BD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EFFB94-A91C-A24D-9F61-E853F630597C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6819" uniqueCount="2459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6820" uniqueCount="2459">
   <si>
     <t>Location</t>
   </si>
@@ -7734,7 +7734,7 @@
   <dimension ref="A1:P273"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="B273" sqref="B273"/>
+      <selection activeCell="G265" sqref="G265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15666,7 +15666,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="13" t="s">
         <v>2435</v>
       </c>
@@ -15682,8 +15682,8 @@
       <c r="F265" s="15" t="s">
         <v>2457</v>
       </c>
-      <c r="G265" s="3">
-        <v>45719</v>
+      <c r="G265" s="15" t="s">
+        <v>2458</v>
       </c>
       <c r="H265" t="s">
         <v>92</v>

--- a/labels.xlsx
+++ b/labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gblair/github/deportationdata.org/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EFFB94-A91C-A24D-9F61-E853F630597C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65709867-38D3-E24B-B659-1126499A1B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6820" uniqueCount="2459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6820" uniqueCount="2458">
   <si>
     <t>Location</t>
   </si>
@@ -7387,12 +7387,6 @@
     <t>sheet; Event Date; Responsible AOR; Responsible Site; Lead Event Type; Lead Source; Event Type; Final Program; Final Program Group; Encounter Criminality; Processing Disposition; Case Status; Case Category; Departed Date; Departure Country; Final Order Yes No; Final Order Date; Birth Date; Birth Year; Citizenship Country; Gender; Alien File Number; EID Case ID; EID Subject ID; Unique Identifier</t>
   </si>
   <si>
-    <t>Deportation Data Project</t>
-  </si>
-  <si>
-    <t>https://deportationdata.org</t>
-  </si>
-  <si>
     <t>eoir/courts_0303</t>
   </si>
   <si>
@@ -7400,6 +7394,9 @@
   </si>
   <si>
     <t>Mid Feb. 2025</t>
+  </si>
+  <si>
+    <t>https://www.ice.gov</t>
   </si>
 </sst>
 </file>
@@ -7733,8 +7730,8 @@
   </sheetPr>
   <dimension ref="A1:P273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="G265" sqref="G265"/>
+    <sheetView topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="G274" sqref="G274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12758,7 +12755,7 @@
     </row>
     <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>363</v>
@@ -12788,7 +12785,7 @@
     </row>
     <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>368</v>
@@ -12818,7 +12815,7 @@
     </row>
     <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>370</v>
@@ -12848,7 +12845,7 @@
     </row>
     <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>373</v>
@@ -12878,7 +12875,7 @@
     </row>
     <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>376</v>
@@ -12908,7 +12905,7 @@
     </row>
     <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>379</v>
@@ -12938,7 +12935,7 @@
     </row>
     <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>382</v>
@@ -12968,7 +12965,7 @@
     </row>
     <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>384</v>
@@ -12998,7 +12995,7 @@
     </row>
     <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>387</v>
@@ -13028,7 +13025,7 @@
     </row>
     <row r="177" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>389</v>
@@ -13058,7 +13055,7 @@
     </row>
     <row r="178" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>392</v>
@@ -13088,7 +13085,7 @@
     </row>
     <row r="179" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>394</v>
@@ -13118,7 +13115,7 @@
     </row>
     <row r="180" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>397</v>
@@ -13148,7 +13145,7 @@
     </row>
     <row r="181" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>400</v>
@@ -13178,7 +13175,7 @@
     </row>
     <row r="182" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>402</v>
@@ -13208,7 +13205,7 @@
     </row>
     <row r="183" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>405</v>
@@ -13238,7 +13235,7 @@
     </row>
     <row r="184" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>408</v>
@@ -13268,7 +13265,7 @@
     </row>
     <row r="185" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>410</v>
@@ -13298,7 +13295,7 @@
     </row>
     <row r="186" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>412</v>
@@ -13328,7 +13325,7 @@
     </row>
     <row r="187" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>415</v>
@@ -13358,7 +13355,7 @@
     </row>
     <row r="188" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>417</v>
@@ -13388,7 +13385,7 @@
     </row>
     <row r="189" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>420</v>
@@ -13418,7 +13415,7 @@
     </row>
     <row r="190" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>423</v>
@@ -13448,7 +13445,7 @@
     </row>
     <row r="191" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>426</v>
@@ -13478,7 +13475,7 @@
     </row>
     <row r="192" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>429</v>
@@ -13508,7 +13505,7 @@
     </row>
     <row r="193" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>432</v>
@@ -13538,7 +13535,7 @@
     </row>
     <row r="194" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>435</v>
@@ -13568,7 +13565,7 @@
     </row>
     <row r="195" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>438</v>
@@ -13598,7 +13595,7 @@
     </row>
     <row r="196" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>441</v>
@@ -13628,7 +13625,7 @@
     </row>
     <row r="197" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>444</v>
@@ -13658,7 +13655,7 @@
     </row>
     <row r="198" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>447</v>
@@ -13688,7 +13685,7 @@
     </row>
     <row r="199" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>450</v>
@@ -13718,7 +13715,7 @@
     </row>
     <row r="200" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>453</v>
@@ -13748,7 +13745,7 @@
     </row>
     <row r="201" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>456</v>
@@ -13778,7 +13775,7 @@
     </row>
     <row r="202" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>459</v>
@@ -13808,7 +13805,7 @@
     </row>
     <row r="203" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>462</v>
@@ -13838,7 +13835,7 @@
     </row>
     <row r="204" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>465</v>
@@ -13868,7 +13865,7 @@
     </row>
     <row r="205" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>468</v>
@@ -13898,7 +13895,7 @@
     </row>
     <row r="206" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>471</v>
@@ -13928,7 +13925,7 @@
     </row>
     <row r="207" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>474</v>
@@ -13958,7 +13955,7 @@
     </row>
     <row r="208" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>476</v>
@@ -13988,7 +13985,7 @@
     </row>
     <row r="209" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>478</v>
@@ -14018,7 +14015,7 @@
     </row>
     <row r="210" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>481</v>
@@ -14048,7 +14045,7 @@
     </row>
     <row r="211" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>484</v>
@@ -14078,7 +14075,7 @@
     </row>
     <row r="212" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>487</v>
@@ -14108,7 +14105,7 @@
     </row>
     <row r="213" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>490</v>
@@ -14138,7 +14135,7 @@
     </row>
     <row r="214" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>493</v>
@@ -14168,7 +14165,7 @@
     </row>
     <row r="215" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>496</v>
@@ -14198,7 +14195,7 @@
     </row>
     <row r="216" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>499</v>
@@ -14228,7 +14225,7 @@
     </row>
     <row r="217" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>502</v>
@@ -14258,7 +14255,7 @@
     </row>
     <row r="218" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>505</v>
@@ -14288,7 +14285,7 @@
     </row>
     <row r="219" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>507</v>
@@ -14318,7 +14315,7 @@
     </row>
     <row r="220" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>510</v>
@@ -14348,7 +14345,7 @@
     </row>
     <row r="221" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>513</v>
@@ -14378,7 +14375,7 @@
     </row>
     <row r="222" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>516</v>
@@ -14408,7 +14405,7 @@
     </row>
     <row r="223" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>518</v>
@@ -14438,7 +14435,7 @@
     </row>
     <row r="224" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>521</v>
@@ -14468,7 +14465,7 @@
     </row>
     <row r="225" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>524</v>
@@ -14498,7 +14495,7 @@
     </row>
     <row r="226" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>527</v>
@@ -14528,7 +14525,7 @@
     </row>
     <row r="227" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>530</v>
@@ -14558,7 +14555,7 @@
     </row>
     <row r="228" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>533</v>
@@ -14588,7 +14585,7 @@
     </row>
     <row r="229" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>536</v>
@@ -14618,7 +14615,7 @@
     </row>
     <row r="230" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>539</v>
@@ -14648,7 +14645,7 @@
     </row>
     <row r="231" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>542</v>
@@ -14678,7 +14675,7 @@
     </row>
     <row r="232" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>545</v>
@@ -14708,7 +14705,7 @@
     </row>
     <row r="233" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>548</v>
@@ -14738,7 +14735,7 @@
     </row>
     <row r="234" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>551</v>
@@ -14768,7 +14765,7 @@
     </row>
     <row r="235" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>553</v>
@@ -14798,7 +14795,7 @@
     </row>
     <row r="236" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>555</v>
@@ -14828,7 +14825,7 @@
     </row>
     <row r="237" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>558</v>
@@ -14858,7 +14855,7 @@
     </row>
     <row r="238" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>561</v>
@@ -14888,7 +14885,7 @@
     </row>
     <row r="239" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>564</v>
@@ -14918,7 +14915,7 @@
     </row>
     <row r="240" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>567</v>
@@ -14948,7 +14945,7 @@
     </row>
     <row r="241" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>569</v>
@@ -14978,7 +14975,7 @@
     </row>
     <row r="242" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>572</v>
@@ -15008,7 +15005,7 @@
     </row>
     <row r="243" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>575</v>
@@ -15038,7 +15035,7 @@
     </row>
     <row r="244" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>578</v>
@@ -15068,7 +15065,7 @@
     </row>
     <row r="245" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>581</v>
@@ -15098,7 +15095,7 @@
     </row>
     <row r="246" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>584</v>
@@ -15128,7 +15125,7 @@
     </row>
     <row r="247" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>587</v>
@@ -15158,7 +15155,7 @@
     </row>
     <row r="248" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>590</v>
@@ -15188,7 +15185,7 @@
     </row>
     <row r="249" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>593</v>
@@ -15218,7 +15215,7 @@
     </row>
     <row r="250" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>596</v>
@@ -15248,7 +15245,7 @@
     </row>
     <row r="251" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>599</v>
@@ -15278,7 +15275,7 @@
     </row>
     <row r="252" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>602</v>
@@ -15308,7 +15305,7 @@
     </row>
     <row r="253" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>605</v>
@@ -15338,7 +15335,7 @@
     </row>
     <row r="254" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>607</v>
@@ -15368,7 +15365,7 @@
     </row>
     <row r="255" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>610</v>
@@ -15398,7 +15395,7 @@
     </row>
     <row r="256" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>612</v>
@@ -15428,7 +15425,7 @@
     </row>
     <row r="257" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>614</v>
@@ -15458,7 +15455,7 @@
     </row>
     <row r="258" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>616</v>
@@ -15488,7 +15485,7 @@
     </row>
     <row r="259" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>619</v>
@@ -15518,7 +15515,7 @@
     </row>
     <row r="260" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>621</v>
@@ -15548,7 +15545,7 @@
     </row>
     <row r="261" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>623</v>
@@ -15578,7 +15575,7 @@
     </row>
     <row r="262" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>626</v>
@@ -15608,7 +15605,7 @@
     </row>
     <row r="263" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>628</v>
@@ -15638,7 +15635,7 @@
     </row>
     <row r="264" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>630</v>
@@ -15680,10 +15677,10 @@
         <v>13</v>
       </c>
       <c r="F265" s="15" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="G265" s="15" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="H265" t="s">
         <v>92</v>
@@ -15709,10 +15706,10 @@
         <v>13</v>
       </c>
       <c r="F266" s="15" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="G266" s="15" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="H266" t="s">
         <v>2442</v>
@@ -15738,10 +15735,10 @@
         <v>13</v>
       </c>
       <c r="F267" s="15" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="G267" s="15" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="H267" t="s">
         <v>2447</v>
@@ -15767,10 +15764,10 @@
         <v>13</v>
       </c>
       <c r="F268" s="15" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="G268" s="15" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="H268" t="s">
         <v>2452</v>
@@ -15797,8 +15794,8 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15874,7 +15871,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>365</v>
@@ -16015,10 +16012,10 @@
         <v>2435</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2454</v>
+        <v>13</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16026,10 +16023,10 @@
         <v>2439</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2454</v>
+        <v>13</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16037,10 +16034,10 @@
         <v>2444</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2454</v>
+        <v>13</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16048,10 +16045,10 @@
         <v>2449</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2454</v>
+        <v>13</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
     </row>
   </sheetData>
@@ -16073,6 +16070,8 @@
     <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
     <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
     <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{0DB99093-8F94-374F-83E8-9AA814707B55}"/>
+    <hyperlink ref="C20:C22" r:id="rId19" display="https://www.ice.gov" xr:uid="{B034CBEF-C87D-4F40-8543-E3A4C8E73447}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
